--- a/data/test_applications/TEST-07/assets_liabilities.xlsx
+++ b/data/test_applications/TEST-07/assets_liabilities.xlsx
@@ -114,7 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -257,46 +257,46 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -616,41 +616,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="25.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="21" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>6928.21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="B5" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -658,7 +658,7 @@
         <v>98883</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -666,7 +666,7 @@
         <v>102015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -702,18 +702,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="18.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>98883</v>
       </c>
     </row>
@@ -776,10 +776,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
